--- a/01-Excel/2/Activities/07-Ins_Formatting/Solved/ConditionalFormatting.xlsx
+++ b/01-Excel/2/Activities/07-Ins_Formatting/Solved/ConditionalFormatting.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/dev/bootcamp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/03-Ins_Formatting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/DataViz-Lesson-Plans_Active/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3EECBF-9FDF-384C-9671-2AB584D25E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13120" yWindow="-25980" windowWidth="39820" windowHeight="20560"/>
+    <workbookView xWindow="43220" yWindow="3080" windowWidth="26480" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorite Colors" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Colors">'Favorite Colors'!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -80,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +113,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -144,6 +168,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -501,20 +527,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="8" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,13 +564,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Colors,"Red")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Colors,"Blue")</f>
@@ -563,15 +590,15 @@
       </c>
       <c r="H2">
         <f>COUNTIF(Colors,"Green")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -594,20 +621,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="b">
         <f>C2&gt;5</f>
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <f t="shared" ref="D5:H5" si="0">D2&gt;5</f>
+        <f>IF(D2&lt;1, TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:H5" si="0">E2&gt;5</f>
         <v>0</v>
       </c>
       <c r="F5" t="b">
@@ -619,167 +646,195 @@
         <v>1</v>
       </c>
       <c r="H5" t="b">
-        <f t="shared" si="0"/>
+        <f>H2&gt;5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K13" s="6">
+        <v>10</v>
+      </c>
+      <c r="L13" s="6" t="str">
+        <f>IF(K13&gt;5, "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f>COUNTIF(Colors, "Orange")</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Orange"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Purple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Yellow"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:H2">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="10"/>
-        <color rgb="FFC00000"/>
-        <color theme="9"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB1E930-68FC-6449-9252-F823DFADF236}">
+  <dimension ref="C11:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(C11=5, "Yes", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>